--- a/Calculate/issues.xlsx
+++ b/Calculate/issues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Music</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Unlock next level on goals achieved</t>
   </si>
   <si>
-    <t>Tap to speed up number display in StageIntroScreen</t>
-  </si>
-  <si>
-    <t>Tap to speed up card shuffling in StageIntroScreen</t>
-  </si>
-  <si>
     <t>ViewSolutionScreen</t>
   </si>
   <si>
@@ -82,6 +76,18 @@
   </si>
   <si>
     <t>Google Play</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Make it ant-able</t>
+  </si>
+  <si>
+    <t>RoboVM backend on MacMini</t>
+  </si>
+  <si>
+    <t>Keystore in repo</t>
   </si>
 </sst>
 </file>
@@ -105,18 +111,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,11 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,55 +464,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="15" spans="1:3">
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -523,34 +519,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Calculate/issues.xlsx
+++ b/Calculate/issues.xlsx
@@ -33,12 +33,6 @@
     <t>General</t>
   </si>
   <si>
-    <t>Increase "attempts" on each game</t>
-  </si>
-  <si>
-    <t>Increase "completed" on each win</t>
-  </si>
-  <si>
     <t>Set limits and goals for each level (needs changing)</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>Keystore in repo</t>
+  </si>
+  <si>
+    <t>WinGameScreen</t>
+  </si>
+  <si>
+    <t>Sort out "do you want to quit" dialog on game screen when back is pressed.</t>
   </si>
 </sst>
 </file>
@@ -111,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,9 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,19 +472,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:3" s="3" customFormat="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -486,77 +496,77 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>14</v>
+      <c r="C13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="C16" t="s">
-        <v>17</v>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Calculate/issues.xlsx
+++ b/Calculate/issues.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,8 +489,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:3" s="3" customFormat="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
